--- a/models/populationsim-taz/data-dictionary.xlsx
+++ b/models/populationsim-taz/data-dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/Link21-TLDU/models/populationsim-taz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F1366B-8957-9F41-925C-E9E2DAF9ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FFF47-F1CD-5B41-8A1E-B446E5A24EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{91DB2D60-C73A-2645-8909-4988E2748C3C}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>employed</t>
   </si>
   <si>
-    <t>Whether the person is employed (ESR == 1, 2, 4, or 5</t>
-  </si>
-  <si>
     <t>Not employed</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Whether the person is employed (ESR == 1, 2, 4, or 5)</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -658,13 +658,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4">
         <v>999</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -709,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -726,13 +726,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -743,13 +743,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -760,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -774,16 +774,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>999</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -791,16 +791,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -808,16 +808,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -825,16 +825,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -842,16 +842,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="4">
         <v>999</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -859,16 +859,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -876,16 +876,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -893,16 +893,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -910,16 +910,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D19" s="4">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -927,16 +927,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D20" s="4">
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -944,16 +944,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,16 +961,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D22" s="4">
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,16 +978,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D23" s="4">
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -995,16 +995,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="4">
         <v>999</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1012,16 +1012,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1029,16 +1029,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D26" s="4">
         <v>999</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1046,16 +1046,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1063,16 +1063,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1080,16 +1080,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D29" s="4">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1097,16 +1097,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D30" s="4">
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1114,16 +1114,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1131,16 +1131,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D32" s="4">
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1148,16 +1148,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1165,16 +1165,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1182,16 +1182,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1199,16 +1199,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1216,16 +1216,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1233,16 +1233,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,16 +1250,16 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1267,16 +1267,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/models/populationsim-taz/data-dictionary.xlsx
+++ b/models/populationsim-taz/data-dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsp/Documents/GitHub/Link21-TLDU/models/populationsim-taz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FFF47-F1CD-5B41-8A1E-B446E5A24EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D6167-97B4-5C49-9349-5BF879525537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{91DB2D60-C73A-2645-8909-4988E2748C3C}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>Production, transportation, and material moving</t>
   </si>
   <si>
-    <t>hh_workers_from_esr</t>
-  </si>
-  <si>
     <t>Household workers, which is sum of `employed`</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>Any variable expressed in CAPs not included in this table is from PUMS; see PUMS data dictionary</t>
   </si>
   <si>
-    <t>HHINC</t>
-  </si>
-  <si>
     <t>Same as `hh_income_2000`</t>
   </si>
   <si>
@@ -224,6 +218,12 @@
   </si>
   <si>
     <t>Whether the person is employed (ESR == 1, 2, 4, or 5)</t>
+  </si>
+  <si>
+    <t>HINC</t>
+  </si>
+  <si>
+    <t>hworkers</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1148,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>33</v>
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>33</v>
@@ -1182,16 +1182,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1199,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>33</v>
@@ -1216,10 +1216,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>33</v>
@@ -1233,10 +1233,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>33</v>
@@ -1250,10 +1250,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>33</v>
@@ -1267,10 +1267,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>33</v>
